--- a/medicine/Enfance/Anthony_Buckeridge/Anthony_Buckeridge.xlsx
+++ b/medicine/Enfance/Anthony_Buckeridge/Anthony_Buckeridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthony Malcolm Buckeridge (né le 20 juin 1912 à Londres et mort le 28 juin 2004), est un écrivain anglais pour la jeunesse, connu pour ses séries Bennett (Jennings, en vo) et Rex Milligan.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de la mort de son père durant la Première Guerre mondiale, Anthony Buckeridge emménage avec sa mère à Ross-on-Wye pour vivre avec ses grands-parents. Après la fin de la guerre, ils reviennent à Londres où le jeune Anthony va développer un goût pour le théâtre et l'écriture. Une bourse d'un fonds pour les orphelins des employés de banque permet à sa mère de l'envoyer au Seaford College boarding school dans le Sussex. Son expérience d'écolier d'alors sera largement réinvestie dans ses futurs récits.
 Après la mort du grand-père de Buckeridge, la famille déménage à Welwyn Garden City où sa mère travaillait à la promotion de la nouvelle utopie banlieusarde auprès des Londoniens. En 1930 Buckeridge commence à travailler à la banque de son père mais s'en lasse vite. Il se lance alors dans le métier d'acteur, comprenant une apparition non créditée dans le film de 1931 d'Anthony Asquith, Tell England.
@@ -521,7 +535,7 @@
 En 1950, paraît le premier roman d'une série qui en comptera plus de vingt : Bennett au collège (Jennings goes to School). Ces récits font une utilisation très libre du jargon inventif d'écolier de Buckeridge. Ces livres, aussi connus que la série de Frank Richards, Billy Bunter à leur époque, seront traduits en un grand nombre de langues.
 En 1962, Buckeridge rencontre sa seconde épouse, Eileen Selby, qu'il reconnaît comme le véritable amour de sa vie. Ils s'installent près de Lewes où Buckeridge continue d'écrire et tient également quelques rôles (non chantant) au Festival d'art lyrique de Glyndebourne.
 L'auteur contribue de manière importante à l'humour britannique d'après-guerre, un fait reconnu notamment par le comédien Stephen Fry. Son sens de la réplique comique et de l'euphémisme délectable a été rapproché du style de P. G. Wodehouse, Ben Hecht et de Ben Travers.
-Il a écrit une autobiographie, While I Remember[1] et a été récompensé par l'Ordre de l'Empire britannique en 2003.
+Il a écrit une autobiographie, While I Remember et a été récompensé par l'Ordre de l'Empire britannique en 2003.
 Anthony Buckeridge meurt le 28 juin 2004 à 92 ans, atteint depuis plusieurs années de la maladie de Parkinson. Il laisse sa seconde femme Eileen et trois enfants, dont deux nés de son premier mariage.
 </t>
         </is>
@@ -551,7 +565,9 @@
           <t>Adaptations de Bennett à l’étranger</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En Norvège, les histoires d'écoliers anglais de classe moyenne étaient particulièrement populaires, et plusieurs épisodes y ont été filmés. Toutefois, les livres et les films norvégiens étaient complètement réécrits, prenant un décor norvégien et des noms norvégiens, tant et si bien que les Norvégiens sont souvent convaincus que la série est d'origine norvégienne. Le nom de Jennings leur est donc complètement inconnu, au contraire de celui de Stompa, le patronyme norvégien de Jennings.
 En France, Olivier Séchan, alors directeur de la collection Bibliothèque verte, adapte les romans pour cette collection : il rebaptise Jennings en Bennett mais conserve le cadre anglais des romans.
@@ -583,7 +599,9 @@
           <t>La série Bennett</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Note : le titre français est suivi du titre original et de sa traduction littérale en français.
 Bennett au collège (Jennings Goes to School - Jennings va à l'école, 1950)
@@ -637,7 +655,9 @@
           <t>Les pièces radiophoniques Bennett</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Note : le titre original est suivi de sa traduction littérale en français.
 Jennings sounds the Alarm (Jennings sonne l'alarme) - sept scripts (Bennett au collège).
